--- a/excel_files/3.5.1.1.xlsx
+++ b/excel_files/3.5.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t>3.5.1.1 Жынысы жана аймактар боюнча 100 000 калкка карата наркотиктен көз каранды болгондордун оорушу</t>
   </si>
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +176,32 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -239,6 +265,21 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +593,7 @@
     <col min="1" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +612,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -583,8 +624,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -618,8 +660,11 @@
       <c r="K3" s="5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -629,32 +674,35 @@
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>13.4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>8.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>7.7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>6.7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>7.6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>4.3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <v>4.5</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="18">
         <v>2.4781170647013133</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="12">
+        <v>2.3859580442195534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,8 +736,11 @@
       <c r="K5" s="7">
         <v>9.2225540633804656E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="13">
+        <v>9.1859137075266314E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -723,8 +774,11 @@
       <c r="K6" s="7">
         <v>4.9007060762512404</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="13">
+        <v>4.6465373038497466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -758,8 +812,11 @@
       <c r="K7" s="7">
         <v>0.18823706576061891</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="13">
+        <v>0.36845576504312777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -793,8 +850,11 @@
       <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -828,8 +888,11 @@
       <c r="K9" s="7">
         <v>0.36949453148093409</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="13">
+        <v>0.75096499001216566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -863,8 +926,11 @@
       <c r="K10" s="7">
         <v>0.65221361300253067</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="13">
+        <v>0.48012175887805142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -898,8 +964,11 @@
       <c r="K11" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -933,8 +1002,11 @@
       <c r="K12" s="7">
         <v>1.296159479462353</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="13">
+        <v>0.96663186791942157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -968,8 +1040,11 @@
       <c r="K13" s="7">
         <v>0.20287802770096591</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="13">
+        <v>0.20040441611171342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1003,8 +1078,11 @@
       <c r="K14" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1038,8 +1116,11 @@
       <c r="K15" s="7">
         <v>0.40738839594892978</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="13">
+        <v>0.39918566125104782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -1073,8 +1154,11 @@
       <c r="K16" s="7">
         <v>0.34681880451558084</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="13">
+        <v>0.34378319656491829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1192,11 @@
       <c r="K17" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1143,8 +1230,11 @@
       <c r="K18" s="7">
         <v>0.68131957976208324</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="13">
+        <v>0.70042726062898364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1178,8 +1268,11 @@
       <c r="K19" s="7">
         <v>0.36901512814419341</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="13">
+        <v>1.0870731063911201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1213,8 +1306,11 @@
       <c r="K20" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1248,8 +1344,11 @@
       <c r="K21" s="7">
         <v>0.72997389613347419</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="13">
+        <v>2.1990265642408962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1283,8 +1382,11 @@
       <c r="K22" s="7">
         <v>4.8983405929252886</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="13">
+        <v>2.6005193608666417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1318,8 +1420,11 @@
       <c r="K23" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="15">
+        <v>0.73493205553146612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1353,8 +1458,11 @@
       <c r="K24" s="7">
         <v>9.6882615532519019</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="13">
+        <v>4.5075501464953796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -1388,8 +1496,11 @@
       <c r="K25" s="7">
         <v>5.7863734062486518</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="13">
+        <v>7.4423681615490045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1423,8 +1534,11 @@
       <c r="K26" s="7">
         <v>0.41463839385671758</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="13">
+        <v>0.20992174117488999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1458,8 +1572,11 @@
       <c r="K27" s="7">
         <v>11.320891744506698</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="13">
+        <v>14.458341648576768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1493,8 +1610,11 @@
       <c r="K28" s="7">
         <v>6.4387168694381982</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="13">
+        <v>3.9473869708034344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1528,8 +1648,11 @@
       <c r="K29" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="15">
+        <v>0.20017335012120496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1563,8 +1686,11 @@
       <c r="K30" s="7">
         <v>13.732519220402834</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="13">
+        <v>7.263991155647842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -1598,8 +1724,11 @@
       <c r="K31" s="7">
         <v>2.9412437539420839</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="13">
+        <v>3.466237273394738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1633,8 +1762,11 @@
       <c r="K32" s="7">
         <v>0.63430043005569159</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1668,8 +1800,12 @@
       <c r="K33" s="10">
         <v>5.3930524002453843</v>
       </c>
+      <c r="L33" s="16">
+        <v>6.7378840593913853</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_files/3.5.1.1.xlsx
+++ b/excel_files/3.5.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
   <si>
     <t>3.5.1.1 Жынысы жана аймактар боюнча 100 000 калкка карата наркотиктен көз каранды болгондордун оорушу</t>
   </si>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -280,6 +280,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -584,16 +587,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -625,8 +630,9 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -663,8 +669,11 @@
       <c r="L3" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -701,8 +710,11 @@
       <c r="L4" s="12">
         <v>2.3859580442195534</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="12">
+        <v>2.0173148373954581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -739,8 +751,11 @@
       <c r="L5" s="13">
         <v>9.1859137075266314E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="13">
+        <v>0.11867182493532386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -777,8 +792,11 @@
       <c r="L6" s="13">
         <v>4.6465373038497466</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="13">
+        <v>3.9440914499323179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -815,8 +833,11 @@
       <c r="L7" s="13">
         <v>0.36845576504312777</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -853,8 +874,11 @@
       <c r="L8" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -891,8 +915,11 @@
       <c r="L9" s="13">
         <v>0.75096499001216566</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -929,8 +956,11 @@
       <c r="L10" s="13">
         <v>0.48012175887805142</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="13">
+        <v>0.62921030174566528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -967,8 +997,11 @@
       <c r="L11" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1005,8 +1038,11 @@
       <c r="L12" s="13">
         <v>0.96663186791942157</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="13">
+        <v>1.2497227177719943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1043,8 +1079,11 @@
       <c r="L13" s="13">
         <v>0.20040441611171342</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="13">
+        <v>0.19844537890168421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1120,11 @@
       <c r="L14" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1119,8 +1161,11 @@
       <c r="L15" s="13">
         <v>0.39918566125104782</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="13">
+        <v>0.39861918314956984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -1157,8 +1202,11 @@
       <c r="L16" s="13">
         <v>0.34378319656491829</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1243,11 @@
       <c r="L17" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1233,8 +1284,11 @@
       <c r="L18" s="13">
         <v>0.70042726062898364</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1271,8 +1325,11 @@
       <c r="L19" s="13">
         <v>1.0870731063911201</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="13">
+        <v>0.85521252031129735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1309,8 +1366,11 @@
       <c r="L20" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1347,8 +1407,11 @@
       <c r="L21" s="13">
         <v>2.1990265642408962</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="13">
+        <v>1.6913581464969858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1385,8 +1448,11 @@
       <c r="L22" s="13">
         <v>2.6005193608666417</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="13">
+        <v>1.8347815875998121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1423,8 +1489,11 @@
       <c r="L23" s="15">
         <v>0.73493205553146612</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1461,8 +1530,11 @@
       <c r="L24" s="13">
         <v>4.5075501464953796</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="13">
+        <v>3.6321107648498847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -1499,8 +1571,11 @@
       <c r="L25" s="13">
         <v>7.4423681615490045</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="13">
+        <v>6.1211560415300026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1537,8 +1612,11 @@
       <c r="L26" s="13">
         <v>0.20992174117488999</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1575,8 +1653,11 @@
       <c r="L27" s="13">
         <v>14.458341648576768</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="13">
+        <v>12.437939862560766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1613,8 +1694,11 @@
       <c r="L28" s="13">
         <v>3.9473869708034344</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="13">
+        <v>3.6823562661275693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1651,8 +1735,11 @@
       <c r="L29" s="15">
         <v>0.20017335012120496</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="15">
+        <v>0.69433233870225819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1689,8 +1776,11 @@
       <c r="L30" s="13">
         <v>7.263991155647842</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="13">
+        <v>7.0564990356117976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -1727,8 +1817,11 @@
       <c r="L31" s="13">
         <v>3.466237273394738</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="13">
+        <v>2.7447727328177227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1765,8 +1858,11 @@
       <c r="L32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1802,6 +1898,9 @@
       </c>
       <c r="L33" s="16">
         <v>6.7378840593913853</v>
+      </c>
+      <c r="M33" s="16">
+        <v>5.6418550419377889</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.5.1.1.xlsx
+++ b/excel_files/3.5.1.1.xlsx
@@ -19,12 +19,6 @@
     <t>3.5.1.1 Жынысы жана аймактар боюнча 100 000 калкка карата наркотиктен көз каранды болгондордун оорушу</t>
   </si>
   <si>
-    <t>3.5.1.1. Заболеваемость наркотической зависимостью на 100 000 населения по полу и территории</t>
-  </si>
-  <si>
-    <t>3.5.1.1. Incidence of drug dependence per 100,000 population by gender and territory</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>Osh city</t>
+  </si>
+  <si>
+    <t>3.5.1.1 Заболеваемость наркотической зависимостью на 100 000 населения по полу и территории</t>
+  </si>
+  <si>
+    <t>3.5.1.1 Incidence of drug dependence per 100,000 population by gender and territory</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -282,6 +282,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,15 +604,15 @@
     <col min="1" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -617,7 +623,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -631,16 +637,17 @@
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>2010</v>
@@ -672,16 +679,19 @@
       <c r="M3" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="6">
         <v>13.4</v>
@@ -713,16 +723,19 @@
       <c r="M4" s="12">
         <v>2.0173148373954581</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="12">
+        <v>1.8780775023805709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>1.7</v>
@@ -754,16 +767,19 @@
       <c r="M5" s="13">
         <v>0.11867182493532386</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="13">
+        <v>0.14178781963228179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>25.3</v>
@@ -795,98 +811,107 @@
       <c r="M6" s="13">
         <v>3.9440914499323179</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="13">
+        <v>3.6534213711232413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>1.6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>1.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>1.3</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>1.2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="6">
         <v>0.8</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <v>0.4</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="18">
         <v>0.18823706576061891</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>0.36845576504312777</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="12">
+        <v>1.0616011776695731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2">
         <v>0.4</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>3.1</v>
@@ -918,98 +943,107 @@
       <c r="M9" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="13">
+        <v>2.1029609690444144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>5.2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>3.2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>1.2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <v>2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="6">
         <v>1.9</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <v>1.5</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="18">
         <v>0.65221361300253067</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>0.48012175887805142</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>0.62921030174566528</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="12">
+        <v>7.6939115769518118E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D11" s="2">
         <v>0.4</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="8">
         <v>0.2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8">
         <v>0.2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>10.1</v>
@@ -1041,98 +1075,107 @@
       <c r="M12" s="13">
         <v>1.2497227177719943</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="13">
+        <v>0.15299034936876182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>2.9</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="21">
         <v>4.8</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="21">
         <v>5</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="21">
         <v>6.4</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="21">
         <v>3.6</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="21">
         <v>5.8</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="22">
         <v>0.6</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="18">
         <v>0.20287802770096591</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>0.20040441611171342</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>0.19844537890168421</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="8">
         <v>0.4</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D15" s="2">
         <v>5.9</v>
@@ -1164,98 +1207,107 @@
       <c r="M15" s="13">
         <v>0.39861918314956984</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>1.9</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="21">
         <v>0.4</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="21">
         <v>3.7</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="21">
         <v>1.4</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="22">
         <v>0.4</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="18">
         <v>0.34681880451558084</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>0.34378319656491829</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="12">
+        <v>0.65058422463372112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D17" s="2">
         <v>0.8</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="8">
         <v>0.7</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -1270,7 +1322,7 @@
         <v>2.9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="8">
         <v>2.1</v>
@@ -1287,98 +1339,107 @@
       <c r="M18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="13">
+        <v>1.2888424905592288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <v>1.6</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="21">
         <v>0.8</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="21">
         <v>1.8</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="21">
         <v>0.9</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="21">
         <v>0.5</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="22">
         <v>2.6</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="18">
         <v>0.36901512814419341</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>1.0870731063911201</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>0.85521252031129735</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="12">
+        <v>0.27625263303290859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="8">
         <v>0.2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D21" s="2">
         <v>3.2</v>
@@ -1410,98 +1471,107 @@
       <c r="M21" s="13">
         <v>1.6913581464969858</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="13">
+        <v>0.54880976881388488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>6.9</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="21">
         <v>3.3</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="21">
         <v>7.2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="21">
         <v>2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="21">
         <v>1.6</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="22">
         <v>1.9</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="18">
         <v>4.8983405929252886</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <v>2.6005193608666417</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>1.8347815875998121</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="12">
+        <v>1.4710371179440784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D23" s="2">
         <v>0.9</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="8">
         <v>0.8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L23" s="15">
         <v>0.73493205553146612</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D24" s="2">
         <v>13</v>
@@ -1533,57 +1603,63 @@
       <c r="M24" s="13">
         <v>3.6321107648498847</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="13">
+        <v>2.9164934998651124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <v>31.8</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="21">
         <v>20.399999999999999</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="21">
         <v>15.2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="21">
         <v>12.3</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="21">
         <v>17.3</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="21">
         <v>11.3</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="22">
         <v>6.4</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="18">
         <v>5.7863734062486518</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <v>7.4423681615490045</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <v>6.1211560415300026</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="12">
+        <v>3.0143719603120251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D26" s="2">
         <v>2.7</v>
@@ -1613,18 +1689,21 @@
         <v>0.20992174117488999</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="N26" s="20">
+        <v>0.18722033961769607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D27" s="2">
         <v>61.9</v>
@@ -1656,57 +1735,63 @@
       <c r="M27" s="13">
         <v>12.437939862560766</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="13">
+        <v>5.8773232015864982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="D28" s="6">
         <v>37.200000000000003</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="21">
         <v>22.1</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="21">
         <v>23.3</v>
       </c>
-      <c r="G28" s="8">
-        <v>16</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="21">
+        <v>16</v>
+      </c>
+      <c r="H28" s="21">
         <v>20.7</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="21">
         <v>9.1</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="22">
         <v>13.2</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="18">
         <v>6.4387168694381982</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <v>3.9473869708034344</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="12">
         <v>3.6823562661275693</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="12">
+        <v>6.4633972501343591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D29" s="2">
         <v>6.6</v>
@@ -1730,7 +1815,7 @@
         <v>0.9</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L29" s="15">
         <v>0.20017335012120496</v>
@@ -1738,16 +1823,19 @@
       <c r="M29" s="15">
         <v>0.69433233870225819</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="15">
+        <v>0.32372779025029014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D30" s="2">
         <v>72.5</v>
@@ -1779,57 +1867,63 @@
       <c r="M30" s="13">
         <v>7.0564990356117976</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="13">
+        <v>13.877107463538389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="D31" s="6">
         <v>15.5</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="21">
         <v>5.3</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="21">
         <v>6.7</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="21">
         <v>16.8</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="21">
         <v>13.3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="21">
         <v>2.8</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="22">
         <v>9.9</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="18">
         <v>2.9412437539420839</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="12">
         <v>3.466237273394738</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="12">
         <v>2.7447727328177227</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="12">
+        <v>1.4047903350424948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D32" s="2">
         <v>1.5</v>
@@ -1838,16 +1932,16 @@
         <v>0.7</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="8">
         <v>0.7</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J32" s="9">
         <v>2</v>
@@ -1859,18 +1953,21 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N32" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D33" s="3">
         <v>30.8</v>
@@ -1901,6 +1998,9 @@
       </c>
       <c r="M33" s="16">
         <v>5.6418550419377889</v>
+      </c>
+      <c r="N33" s="16">
+        <v>1.6467682173734046</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.5.1.1.xlsx
+++ b/excel_files/3.5.1.1.xlsx
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,24 +174,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -233,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -265,28 +247,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +562,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,9 +601,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -673,17 +639,17 @@
       <c r="K3" s="5">
         <v>2019</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="5">
         <v>2020</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="5">
         <v>2021</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="5">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -714,7 +680,7 @@
       <c r="J4" s="6">
         <v>4.5</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="12">
         <v>2.4781170647013133</v>
       </c>
       <c r="L4" s="12">
@@ -761,13 +727,13 @@
       <c r="K5" s="7">
         <v>9.2225540633804656E-2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="7">
         <v>9.1859137075266314E-2</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="7">
         <v>0.11867182493532386</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="7">
         <v>0.14178781963228179</v>
       </c>
     </row>
@@ -805,17 +771,17 @@
       <c r="K6" s="7">
         <v>4.9007060762512404</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="7">
         <v>4.6465373038497466</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="7">
         <v>3.9440914499323179</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="7">
         <v>3.6534213711232413</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -846,7 +812,7 @@
       <c r="J7" s="6">
         <v>0.4</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="12">
         <v>0.18823706576061891</v>
       </c>
       <c r="L7" s="12">
@@ -881,7 +847,7 @@
       <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
         <v>0.4</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -890,16 +856,16 @@
       <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="14">
+      <c r="K8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -937,17 +903,17 @@
       <c r="K9" s="7">
         <v>0.36949453148093409</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="7">
         <v>0.75096499001216566</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="7">
         <v>2.1029609690444144</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -978,7 +944,7 @@
       <c r="J10" s="6">
         <v>1.5</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="12">
         <v>0.65221361300253067</v>
       </c>
       <c r="L10" s="12">
@@ -1007,7 +973,7 @@
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="2">
         <v>0.2</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1016,22 +982,22 @@
       <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="2">
         <v>0.2</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="14">
+      <c r="K11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1048,38 +1014,38 @@
       <c r="D12" s="2">
         <v>10.1</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="2">
         <v>6.4</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="2">
         <v>4.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="2">
         <v>2.5</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="2">
         <v>4</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="2">
         <v>3.7</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="2">
         <v>3</v>
       </c>
       <c r="K12" s="7">
         <v>1.296159479462353</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="7">
         <v>0.96663186791942157</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="7">
         <v>1.2497227177719943</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="7">
         <v>0.15299034936876182</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1092,25 +1058,25 @@
       <c r="D13" s="6">
         <v>2.9</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="6">
         <v>4.8</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="6">
         <v>6.4</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="6">
         <v>3.6</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="6">
         <v>5.8</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="6">
         <v>0.6</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="12">
         <v>0.20287802770096591</v>
       </c>
       <c r="L13" s="12">
@@ -1154,16 +1120,16 @@
       <c r="J14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="14">
+      <c r="K14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1180,38 +1146,38 @@
       <c r="D15" s="2">
         <v>5.9</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="2">
         <v>10</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="2">
         <v>12.5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="2">
         <v>7.2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="2">
         <v>11.7</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="2">
         <v>1.2</v>
       </c>
       <c r="K15" s="7">
         <v>0.40738839594892978</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="7">
         <v>0.39918566125104782</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="7">
         <v>0.39861918314956984</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1224,25 +1190,25 @@
       <c r="D16" s="6">
         <v>1.9</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="6">
         <v>0.4</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="6">
         <v>3.7</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="6">
         <v>1.4</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="21">
+      <c r="H16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="6">
         <v>0.4</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="12">
         <v>0.34681880451558084</v>
       </c>
       <c r="L16" s="12">
@@ -1271,7 +1237,7 @@
       <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="2">
         <v>0.7</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -1286,16 +1252,16 @@
       <c r="J17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="14">
+      <c r="K17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1312,38 +1278,38 @@
       <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="2">
         <v>0.7</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="2">
         <v>6.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="2">
         <v>2.9</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="2">
         <v>2.1</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="2">
         <v>0.7</v>
       </c>
       <c r="K18" s="7">
         <v>0.68131957976208324</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="7">
         <v>0.70042726062898364</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="7">
         <v>1.2888424905592288</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1356,25 +1322,25 @@
       <c r="D19" s="6">
         <v>1.6</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="6">
         <v>0.8</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="6">
         <v>1.8</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="6">
         <v>0.9</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="6">
         <v>0.5</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="6">
         <v>2.6</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="12">
         <v>0.36901512814419341</v>
       </c>
       <c r="L19" s="12">
@@ -1418,16 +1384,16 @@
       <c r="J20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="14">
+      <c r="K20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1444,38 +1410,38 @@
       <c r="D21" s="2">
         <v>3.2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="2">
         <v>4.5</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="2">
         <v>1.5</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="2">
         <v>3.5</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="2">
         <v>1.9</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="2">
         <v>0.9</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="2">
         <v>5.2</v>
       </c>
       <c r="K21" s="7">
         <v>0.72997389613347419</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="7">
         <v>2.1990265642408962</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="7">
         <v>1.6913581464969858</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="7">
         <v>0.54880976881388488</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1488,25 +1454,25 @@
       <c r="D22" s="6">
         <v>6.9</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="6">
         <v>3.3</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="6">
         <v>7.2</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="6">
         <v>2</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="6">
         <v>1.6</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="6">
         <v>1.9</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="12">
         <v>4.8983405929252886</v>
       </c>
       <c r="L22" s="12">
@@ -1535,7 +1501,7 @@
       <c r="E23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="2">
         <v>0.8</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -1550,16 +1516,16 @@
       <c r="J23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="K23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7">
         <v>0.73493205553146612</v>
       </c>
-      <c r="M23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="15">
+      <c r="M23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1576,38 +1542,38 @@
       <c r="D24" s="2">
         <v>13</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="2">
         <v>6.6</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="2">
         <v>7.3</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="2">
         <v>14.3</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="2">
         <v>3.9</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="2">
         <v>3.1</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="2">
         <v>3.8</v>
       </c>
       <c r="K24" s="7">
         <v>9.6882615532519019</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="7">
         <v>4.5075501464953796</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="7">
         <v>3.6321107648498847</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="7">
         <v>2.9164934998651124</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
@@ -1620,25 +1586,25 @@
       <c r="D25" s="6">
         <v>31.8</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="6">
         <v>15.2</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="6">
         <v>12.3</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="6">
         <v>17.3</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="6">
         <v>11.3</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="6">
         <v>6.4</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="12">
         <v>5.7863734062486518</v>
       </c>
       <c r="L25" s="12">
@@ -1664,34 +1630,34 @@
       <c r="D26" s="2">
         <v>2.7</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="2">
         <v>0.5</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="2">
         <v>0.9</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="2">
         <v>1.6</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="2">
         <v>0.4</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="2">
         <v>0.8</v>
       </c>
       <c r="K26" s="7">
         <v>0.41463839385671758</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="7">
         <v>0.20992174117488999</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="20">
+      <c r="M26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="7">
         <v>0.18722033961769607</v>
       </c>
     </row>
@@ -1708,38 +1674,38 @@
       <c r="D27" s="2">
         <v>61.9</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="2">
         <v>41.1</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="2">
         <v>29.9</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="2">
         <v>23.3</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="2">
         <v>33.1</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="2">
         <v>22.5</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="2">
         <v>12.2</v>
       </c>
       <c r="K27" s="7">
         <v>11.320891744506698</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="7">
         <v>14.458341648576768</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="7">
         <v>12.437939862560766</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="7">
         <v>5.8773232015864982</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
@@ -1752,25 +1718,25 @@
       <c r="D28" s="6">
         <v>37.200000000000003</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="6">
         <v>22.1</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="6">
         <v>23.3</v>
       </c>
-      <c r="G28" s="21">
-        <v>16</v>
-      </c>
-      <c r="H28" s="21">
+      <c r="G28" s="6">
+        <v>16</v>
+      </c>
+      <c r="H28" s="6">
         <v>20.7</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="6">
         <v>9.1</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="6">
         <v>13.2</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="12">
         <v>6.4387168694381982</v>
       </c>
       <c r="L28" s="12">
@@ -1796,34 +1762,34 @@
       <c r="D29" s="2">
         <v>6.6</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="2">
         <v>2.1</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="2">
         <v>0.8</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="2">
         <v>1.2</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="2">
         <v>0.9</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="2">
         <v>0.9</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="15">
+      <c r="K29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="7">
         <v>0.20017335012120496</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="7">
         <v>0.69433233870225819</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="7">
         <v>0.32372779025029014</v>
       </c>
     </row>
@@ -1840,38 +1806,38 @@
       <c r="D30" s="2">
         <v>72.5</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="2">
         <v>45.1</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="2">
         <v>44.7</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="2">
         <v>33.5</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="2">
         <v>43</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="2">
         <v>18.3</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="2">
         <v>27.2</v>
       </c>
       <c r="K30" s="7">
         <v>13.732519220402834</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="7">
         <v>7.263991155647842</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="7">
         <v>7.0564990356117976</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="7">
         <v>13.877107463538389</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
@@ -1884,25 +1850,25 @@
       <c r="D31" s="6">
         <v>15.5</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="6">
         <v>5.3</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="6">
         <v>6.7</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="6">
         <v>16.8</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="6">
         <v>13.3</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="6">
         <v>2.8</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="6">
         <v>9.9</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="12">
         <v>2.9412437539420839</v>
       </c>
       <c r="L31" s="12">
@@ -1928,13 +1894,13 @@
       <c r="D32" s="2">
         <v>1.5</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="2">
         <v>0.7</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="2">
         <v>0.7</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -1943,19 +1909,19 @@
       <c r="I32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="2">
         <v>2</v>
       </c>
       <c r="K32" s="7">
         <v>0.63430043005569159</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="7">
         <v>0</v>
       </c>
-      <c r="M32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="14">
+      <c r="M32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="7">
         <v>1.2</v>
       </c>
     </row>
@@ -1993,13 +1959,13 @@
       <c r="K33" s="10">
         <v>5.3930524002453843</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="10">
         <v>6.7378840593913853</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="10">
         <v>5.6418550419377889</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="10">
         <v>1.6467682173734046</v>
       </c>
     </row>

--- a/excel_files/3.5.1.1.xlsx
+++ b/excel_files/3.5.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
   <si>
     <t>3.5.1.1 Жынысы жана аймактар боюнча 100 000 калкка карата наркотиктен көз каранды болгондордун оорушу</t>
   </si>
@@ -37,24 +37,6 @@
     <t>Kyrgyz Republic</t>
   </si>
   <si>
-    <t>аялдар</t>
-  </si>
-  <si>
-    <t>женщины</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>эркектер</t>
-  </si>
-  <si>
-    <t>мужчины</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
     <t>Баткен облусу</t>
   </si>
   <si>
@@ -143,6 +125,24 @@
   </si>
   <si>
     <t>3.5.1.1 Incidence of drug dependence per 100,000 population by gender and territory</t>
+  </si>
+  <si>
+    <t>Аялдар</t>
+  </si>
+  <si>
+    <t>Эркектер</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Men</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -253,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,26 +562,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -589,7 +590,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -604,8 +605,9 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -648,8 +650,11 @@
       <c r="N3" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -692,16 +697,19 @@
       <c r="N4" s="12">
         <v>1.8780775023805709</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="12">
+        <v>2.3944505088207331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>1.7</v>
@@ -736,16 +744,19 @@
       <c r="N5" s="7">
         <v>0.14178781963228179</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="7">
+        <v>0.52951886522435021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>25.3</v>
@@ -780,16 +791,19 @@
       <c r="N6" s="7">
         <v>3.6534213711232413</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="7">
+        <v>4.3000500913119915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6">
         <v>1.6</v>
@@ -824,60 +838,66 @@
       <c r="N7" s="12">
         <v>1.0616011776695731</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="12">
+        <v>0.51981356020307379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8">
         <v>0.4</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>3.1</v>
@@ -912,16 +932,19 @@
       <c r="N9" s="7">
         <v>2.1029609690444144</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="7">
+        <v>1.028739554007112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6">
         <v>5.2</v>
@@ -956,60 +979,66 @@
       <c r="N10" s="12">
         <v>7.6939115769518118E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="12">
+        <v>0.45336944169064486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2">
         <v>0.4</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>0.2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="7">
+        <v>0.15211161341746121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
         <v>10.1</v>
@@ -1044,16 +1073,19 @@
       <c r="N12" s="7">
         <v>0.15299034936876182</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="7">
+        <v>0.75073722395392273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6">
         <v>2.9</v>
@@ -1088,60 +1120,66 @@
       <c r="N13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="8">
         <v>0.4</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2">
         <v>5.9</v>
@@ -1176,16 +1214,19 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6">
         <v>1.9</v>
@@ -1200,7 +1241,7 @@
         <v>1.4</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I16" s="6">
         <v>1.1000000000000001</v>
@@ -1220,60 +1261,66 @@
       <c r="N16" s="12">
         <v>0.65058422463372112</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="12">
+        <v>0.32236434908190637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2">
         <v>0.8</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
         <v>0.7</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -1288,7 +1335,7 @@
         <v>2.9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2">
         <v>2.1</v>
@@ -1308,16 +1355,19 @@
       <c r="N18" s="7">
         <v>1.2888424905592288</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="7">
+        <v>0.63756806039044667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19" s="6">
         <v>1.6</v>
@@ -1352,60 +1402,66 @@
       <c r="N19" s="12">
         <v>0.27625263303290859</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="12">
+        <v>0.47449906455898705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8">
         <v>0.2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="9">
+        <v>0.13658701822343999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>3.2</v>
@@ -1440,16 +1496,19 @@
       <c r="N21" s="7">
         <v>0.54880976881388488</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="7">
+        <v>0.80742182138214469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D22" s="6">
         <v>6.9</v>
@@ -1484,60 +1543,66 @@
       <c r="N22" s="12">
         <v>1.4710371179440784</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="12">
+        <v>1.4528231986808364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>0.9</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <v>0.8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7">
         <v>0.73493205553146612</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
         <v>13</v>
@@ -1572,16 +1637,19 @@
       <c r="N24" s="7">
         <v>2.9164934998651124</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="7">
+        <v>2.8788783889796536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6">
         <v>31.8</v>
@@ -1616,16 +1684,19 @@
       <c r="N25" s="12">
         <v>3.0143719603120251</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="12">
+        <v>7.2371521991664292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2">
         <v>2.7</v>
@@ -1655,21 +1726,24 @@
         <v>0.20992174117488999</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
         <v>0.18722033961769607</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="7">
+        <v>0.1843916182945988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>61.9</v>
@@ -1704,16 +1778,19 @@
       <c r="N27" s="7">
         <v>5.8773232015864982</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="7">
+        <v>14.38048139128356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6">
         <v>37.200000000000003</v>
@@ -1748,16 +1825,19 @@
       <c r="N28" s="12">
         <v>6.4633972501343591</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="12">
+        <v>5.7129502194292243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2">
         <v>6.6</v>
@@ -1781,7 +1861,7 @@
         <v>0.9</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7">
         <v>0.20017335012120496</v>
@@ -1792,16 +1872,19 @@
       <c r="N29" s="7">
         <v>0.32372779025029014</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="7">
+        <v>2.3720702955125175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2">
         <v>72.5</v>
@@ -1836,16 +1919,19 @@
       <c r="N30" s="7">
         <v>13.877107463538389</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="7">
+        <v>9.7530937387050578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="6">
         <v>15.5</v>
@@ -1880,16 +1966,19 @@
       <c r="N31" s="12">
         <v>1.4047903350424948</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="12">
+        <v>1.3736037318066185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2">
         <v>1.5</v>
@@ -1898,16 +1987,16 @@
         <v>0.7</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>0.7</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
@@ -1919,21 +2008,24 @@
         <v>0</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N32" s="7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="7">
+        <v>0.56245500359971201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3">
         <v>30.8</v>
@@ -1967,6 +2059,9 @@
       </c>
       <c r="N33" s="10">
         <v>1.6467682173734046</v>
+      </c>
+      <c r="O33" s="10">
+        <v>2.148066203400389</v>
       </c>
     </row>
   </sheetData>
